--- a/Data/aearep-474/candidatepackages.xlsx
+++ b/Data/aearep-474/candidatepackages.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -31,9 +28,6 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>bigtab</t>
   </si>
   <si>
@@ -46,15 +40,6 @@
     <t>bys</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -67,19 +52,10 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-474</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-474/117402</t>
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>CODE-for-The-DNA-of-New-Exporters-Feb28_2020.do</t>
@@ -126,7 +102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -134,13 +110,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -148,7 +124,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -160,7 +136,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -172,7 +148,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -184,7 +160,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -196,10 +172,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>279</v>
+        <v>751</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.24826446175575256</v>
       </c>
       <c r="D6"/>
     </row>
@@ -208,10 +184,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>290</v>
+        <v>955</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D7"/>
     </row>
@@ -220,72 +196,12 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>826</v>
+        <v>1306</v>
       </c>
       <c r="C8">
-        <v>0.27387267351150513</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1133</v>
-      </c>
-      <c r="C9">
-        <v>0.37566313147544861</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1472</v>
-      </c>
-      <c r="C10">
-        <v>0.48806366324424744</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1798</v>
-      </c>
-      <c r="C11">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1817</v>
-      </c>
-      <c r="C12">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1859</v>
-      </c>
-      <c r="C13">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D13"/>
     </row>
   </sheetData>
 </worksheet>
@@ -293,39 +209,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
